--- a/Community/MagetabConverter/Magetab2Xml/samples/test_magetab_appdx7.xlsx
+++ b/Community/MagetabConverter/Magetab2Xml/samples/test_magetab_appdx7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-7635" yWindow="2415" windowWidth="19440" windowHeight="8085" tabRatio="162" activeTab="1"/>
+    <workbookView xWindow="-7635" yWindow="2415" windowWidth="19440" windowHeight="8085" tabRatio="162"/>
   </bookViews>
   <sheets>
     <sheet name="IDF" sheetId="1" r:id="rId1"/>
@@ -818,9 +818,6 @@
     <t>Whole transcriptome analysis of Sox17-expressing cells in E8.0 and E8.5 mouse embryos &lt;id=1&gt;</t>
   </si>
   <si>
-    <t>param1</t>
-  </si>
-  <si>
     <t>1;1</t>
   </si>
   <si>
@@ -888,6 +885,9 @@
   </si>
   <si>
     <t>Nugen Ovation RNA-Seq System V1, #7100-08 &lt;id=306&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;param1&gt;&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -2075,7 +2075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV61"/>
   <sheetViews>
-    <sheetView topLeftCell="B45" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
@@ -3515,10 +3515,10 @@
         <v>109</v>
       </c>
       <c r="C39" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D39" s="31" t="s">
         <v>275</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>276</v>
       </c>
       <c r="E39" s="31" t="s">
         <v>175</v>
@@ -4013,10 +4013,10 @@
         <v>163</v>
       </c>
       <c r="C49" s="61" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="D49" s="55" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E49" s="35" t="s">
         <v>104</v>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="C52" s="57"/>
       <c r="D52" s="57" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I52" s="11"/>
       <c r="J52" s="60"/>
@@ -4102,7 +4102,7 @@
       </c>
       <c r="C53" s="57"/>
       <c r="D53" s="57" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I53" s="11"/>
       <c r="J53" s="60"/>
@@ -4119,7 +4119,7 @@
         <v>253</v>
       </c>
       <c r="D54" s="57" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>181</v>
@@ -4219,7 +4219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DX7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+    <sheetView topLeftCell="AI1" workbookViewId="0">
       <selection activeCell="AL7" sqref="AL7"/>
     </sheetView>
   </sheetViews>
@@ -4331,7 +4331,7 @@
         <v>32</v>
       </c>
       <c r="U1" s="47" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="V1" s="45" t="s">
         <v>106</v>
@@ -4352,7 +4352,7 @@
         <v>264</v>
       </c>
       <c r="AB1" s="47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AC1" s="47" t="s">
         <v>32</v>
@@ -4534,7 +4534,7 @@
         <v>111</v>
       </c>
       <c r="T2" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U2" s="56" t="s">
         <v>255</v>
@@ -4552,13 +4552,13 @@
         <v>111</v>
       </c>
       <c r="Z2" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AA2" s="30">
         <v>7</v>
       </c>
       <c r="AB2" s="55" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AC2" s="31" t="s">
         <v>175</v>
@@ -4738,7 +4738,7 @@
         <v>111</v>
       </c>
       <c r="T3" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U3" s="56" t="s">
         <v>255</v>
@@ -4756,13 +4756,13 @@
         <v>111</v>
       </c>
       <c r="Z3" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AA3" s="30">
         <v>10</v>
       </c>
       <c r="AB3" s="55" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AC3" s="31" t="s">
         <v>175</v>
@@ -4942,7 +4942,7 @@
         <v>111</v>
       </c>
       <c r="T4" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U4" s="56" t="s">
         <v>255</v>
@@ -4960,13 +4960,13 @@
         <v>111</v>
       </c>
       <c r="Z4" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AA4" s="30">
         <v>10</v>
       </c>
       <c r="AB4" s="55" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AC4" s="31" t="s">
         <v>175</v>
@@ -5146,7 +5146,7 @@
         <v>111</v>
       </c>
       <c r="T5" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="U5" s="56" t="s">
         <v>255</v>
@@ -5164,13 +5164,13 @@
         <v>111</v>
       </c>
       <c r="Z5" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AA5" s="30">
         <v>10</v>
       </c>
       <c r="AB5" s="55" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AC5" s="31" t="s">
         <v>175</v>
@@ -5352,7 +5352,7 @@
         <v>111</v>
       </c>
       <c r="T6" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U6" s="56" t="s">
         <v>255</v>
@@ -5370,13 +5370,13 @@
         <v>111</v>
       </c>
       <c r="Z6" s="31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AA6" s="30">
         <v>10</v>
       </c>
       <c r="AB6" s="55" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AC6" s="31" t="s">
         <v>175</v>
@@ -5558,10 +5558,10 @@
         <v>111</v>
       </c>
       <c r="T7" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U7" s="56" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="V7" s="30" t="s">
         <v>143</v>
@@ -5576,13 +5576,13 @@
         <v>111</v>
       </c>
       <c r="Z7" s="31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AA7" s="30">
         <v>10</v>
       </c>
       <c r="AB7" s="55" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AC7" s="31" t="s">
         <v>175</v>
